--- a/mobi_client/mobi_client/mobi_config/excel/001_服务器表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/001_服务器表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDBB2E9-3A5F-41BB-ACAC-9DACE63C4463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="13290" tabRatio="714"/>
+    <workbookView xWindow="-25635" yWindow="2115" windowWidth="16590" windowHeight="13245" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server|服务器" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>服务器id</t>
   </si>
@@ -192,18 +198,32 @@
   <si>
     <t>兼容测试服</t>
   </si>
+  <si>
+    <t>101.43.199.39</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +254,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -244,151 +264,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,13 +299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399456770531327"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,194 +315,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -650,251 +354,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -905,19 +367,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -933,62 +395,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,19 +693,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -1301,7 +719,7 @@
     <col min="13" max="13" width="112.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1403,7 +821,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1418,7 +836,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -1433,7 +851,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -1448,7 +866,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -1463,7 +881,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1478,7 +896,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -1490,7 +908,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -1505,7 +923,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -1516,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -1527,7 +945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -1539,7 +957,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -1551,7 +969,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1012</v>
       </c>
@@ -1563,7 +981,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1013</v>
       </c>
@@ -1574,7 +992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1585,7 +1003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1599,7 +1017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1613,7 +1031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>1023</v>
       </c>
@@ -1627,7 +1045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1099</v>
       </c>
@@ -1641,7 +1059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1655,69 +1073,78 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="53" spans="2:6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>10012</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>10120</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="6:6">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F70" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/001_服务器表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/001_服务器表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mobi_\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDBB2E9-3A5F-41BB-ACAC-9DACE63C4463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25635" yWindow="2115" windowWidth="16590" windowHeight="13245" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25635" yWindow="2115" windowWidth="16590" windowHeight="13245" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="Server|服务器" sheetId="2" r:id="rId1"/>
@@ -75,6 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -85,6 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,17 +93,12 @@
     </r>
   </si>
   <si>
-    <t>外网公服-1（内部稳定）</t>
-  </si>
-  <si>
-    <t>外网公服-2（对外）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -133,9 +131,6 @@
     <t>外网公服-4</t>
   </si>
   <si>
-    <t>外网公服-5</t>
-  </si>
-  <si>
     <t>172.30.224.37</t>
   </si>
   <si>
@@ -200,7 +195,7 @@
   </si>
   <si>
     <t>101.43.199.39</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,14 +211,26 @@
       </rPr>
       <t>服</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网公服-1（taptap）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网公服-2（对外）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网公服-5（主干）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +243,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -243,23 +251,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +283,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,14 +314,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -339,27 +338,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -388,16 +372,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,11 +682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,68 +800,68 @@
       <c r="C4">
         <v>10010</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10002</v>
+        <v>10005</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>10020</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+        <v>10050</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>10030</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>10020</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>10040</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>10030</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>10050</v>
+        <v>10040</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -886,13 +870,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>8844</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -904,7 +888,7 @@
         <v>8844</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -913,13 +897,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>8855</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -931,29 +915,31 @@
         <v>8844</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1009</v>
       </c>
+      <c r="B13" s="6"/>
       <c r="C13">
         <v>8844</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1010</v>
       </c>
+      <c r="B14" s="6"/>
       <c r="C14">
         <v>8844</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -961,11 +947,12 @@
       <c r="A15">
         <v>1011</v>
       </c>
+      <c r="B15" s="6"/>
       <c r="C15">
         <v>8844</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -973,11 +960,12 @@
       <c r="A16">
         <v>1012</v>
       </c>
+      <c r="B16" s="6"/>
       <c r="C16">
         <v>8844</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -985,11 +973,12 @@
       <c r="A17">
         <v>1013</v>
       </c>
+      <c r="B17" s="6"/>
       <c r="C17">
         <v>8844</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1000,7 +989,7 @@
         <v>8844</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1008,13 +997,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>8844</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1022,41 +1011,41 @@
         <v>1019</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>8844</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>8844</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
-      </c>
-      <c r="C20">
-        <v>8844</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <v>1023</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>8844</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1099</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C22">
         <v>8844</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1069,23 +1058,31 @@
       <c r="C23">
         <v>10110</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>42</v>
+      <c r="D23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+      <c r="A24">
         <v>10012</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>43</v>
+      <c r="B24" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C24">
         <v>10120</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
@@ -1143,7 +1140,7 @@
       <c r="F70" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
